--- a/experiment result/64_0.6_40_zs50_kappa_lp.xlsx
+++ b/experiment result/64_0.6_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006276333458456083</v>
+        <v>0.00599572808749059</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.009660916428973163</v>
+        <v>0.0008131806263727236</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01400839724254685</v>
+        <v>0.006549012687537459</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01155791736694341</v>
+        <v>0.02040328025815404</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.006580863341353974</v>
+        <v>0.0007916545276919309</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01507626513701827</v>
+        <v>0.03699067362245752</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0089524409171556</v>
+        <v>0.0003228270906435244</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.006714165205147195</v>
+        <v>0.005402523077978386</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008909161942743641</v>
+        <v>0.007904836105595411</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01748007473179792</v>
+        <v>0.01770202141440298</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01057667923337296</v>
+        <v>0.02203820254298924</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01885336094992421</v>
+        <v>0.1082547292430396</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.009400140622373064</v>
+        <v>0.01319123578537819</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.007988296790294959</v>
+        <v>0.001905988061586673</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01431630559415393</v>
+        <v>0.0138897687755656</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0120479907589059</v>
+        <v>0.006128623921721659</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.009657188241438191</v>
+        <v>0.004653324326828665</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.005440994517722341</v>
+        <v>0.0005866776905493642</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01475425310330606</v>
+        <v>0.02473936227548736</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.009108131391289496</v>
+        <v>0.003084333409296073</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.006015400483020831</v>
+        <v>0.002251002551609662</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.006176424005066255</v>
+        <v>0.006194585851596097</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01022472118794598</v>
+        <v>0.0114285921768964</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.004166276927289154</v>
+        <v>0.0002475050045532691</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.003941321706010714</v>
+        <v>0.001462908562621317</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01591023731373108</v>
+        <v>0.02494104612464614</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01341746189686695</v>
+        <v>0.009178209838734141</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.009224671044703727</v>
+        <v>0.03354643913100032</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.008239748632175281</v>
+        <v>0.02226846117270758</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01141365567803928</v>
+        <v>0.006754631251072602</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.004729451181574298</v>
+        <v>7.082761011126058e-05</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.008621962933312809</v>
+        <v>6.363096453975538e-05</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01697693313803013</v>
+        <v>0.01559886154879719</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.004707876841423901</v>
+        <v>0.0002668477306718006</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01058957945338902</v>
+        <v>0.0135971245750436</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01205010010506054</v>
+        <v>0.006128556007679786</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.008529811966929087</v>
+        <v>0.00040939534350457</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01310814564204675</v>
+        <v>0.007684759708831227</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.005275930760681282</v>
+        <v>0.0005517441825167198</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01500315630846004</v>
+        <v>0.09878099007747757</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01104889358070102</v>
+        <v>0.06741267081464251</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.007666364232330272</v>
+        <v>0.02913251216777586</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.004936834914330386</v>
+        <v>0.0006911377235090804</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.004904395745229137</v>
+        <v>8.922754112508129e-05</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01181788909764715</v>
+        <v>0.01098328867577847</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01206696535702239</v>
+        <v>0.01060449148179896</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03627412063422653</v>
+        <v>0.08897633449839194</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.005027331528876734</v>
+        <v>0.002753953983988467</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01184351365067422</v>
+        <v>0.009048752729330024</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.004313816240810939</v>
+        <v>0.001138324549612797</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.006695040758306977</v>
+        <v>0.003973698630030229</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.009475251786090018</v>
+        <v>0.01320543818663592</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.005757753102578722</v>
+        <v>4.241009709144933e-06</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.006866713017453459</v>
+        <v>0.00227980051246278</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01220115119789637</v>
+        <v>0.004267816709801369</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.009404420500796986</v>
+        <v>0.006067676198209155</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.00765786288308181</v>
+        <v>0.001045715865603948</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.006661110462475949</v>
+        <v>0.001009067218105955</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.008305247015159164</v>
+        <v>0.01319619656846833</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.006149683850305278</v>
+        <v>0.0004560041668508303</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.002766581264278678</v>
+        <v>0.000142112679261276</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.004288610680073666</v>
+        <v>0.002687870815265381</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.008057717463446985</v>
+        <v>0.01261494363130122</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.006484760099127326</v>
+        <v>0.0008344755587200211</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01142405504418254</v>
+        <v>0.01264710373408401</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01298478336383697</v>
+        <v>0.005955671787828611</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.005567731140077825</v>
+        <v>0.003387357615685175</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.006674093126173414</v>
+        <v>0.001007767376512825</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0104698765240535</v>
+        <v>0.0004896870202989137</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.003799468285794489</v>
+        <v>0.004930498327152955</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.007145658899942509</v>
+        <v>0.001858320935846611</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.003047336519638885</v>
+        <v>0.0001119581752459007</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01484701251108395</v>
+        <v>0.006921056044118135</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0196257278739939</v>
+        <v>0.004118793906432906</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.009396093040359354</v>
+        <v>0.04104112142873054</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.009042478252553325</v>
+        <v>0.01786227212384641</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.005569035172746897</v>
+        <v>0.0009553130386251091</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01328230222354422</v>
+        <v>0.02727720284223284</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01121075444511673</v>
+        <v>0.008388512745561894</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.007413910889129596</v>
+        <v>0.004465687716755855</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.00871003120256739</v>
+        <v>0.002579019618842479</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01041304804858745</v>
+        <v>0.006347954916124202</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01110481303732784</v>
+        <v>0.02053981220880357</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01120906489375974</v>
+        <v>0.01467926249471753</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0150297828894106</v>
+        <v>0.1144169602012428</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.00662137052958475</v>
+        <v>0.00632159351955471</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.009647624505661829</v>
+        <v>0.0161138155602508</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01812857112450764</v>
+        <v>0.002734249567743084</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.008574415701059702</v>
+        <v>0.001801266215207972</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01061955980698513</v>
+        <v>0.007777462707923602</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01842908785578102</v>
+        <v>0.02659998891394841</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.009912459649223895</v>
+        <v>0.02327097986970041</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01888968785691331</v>
+        <v>0.01037099078101692</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01254005934879506</v>
+        <v>0.007828981853790886</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.00450277307904942</v>
+        <v>0.006835414271158184</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.005155045179580338</v>
+        <v>0.0003379503554660846</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.006020383719876377</v>
+        <v>0.0002216583545023307</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.009623292927026654</v>
+        <v>0.01643190033245321</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02012298246067349</v>
+        <v>0.01275787793927778</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.006982694456034262</v>
+        <v>0.0008114125154173814</v>
       </c>
     </row>
   </sheetData>
